--- a/scripts/2022/2022_06_03_heatmap_temprisk_without_planprices/heatmap_temprisk_gas_B2C_LEGACY_on_2022-06-03.xlsx
+++ b/scripts/2022/2022_06_03_heatmap_temprisk_without_planprices/heatmap_temprisk_gas_B2C_LEGACY_on_2022-06-03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruud.wijtvliet\Ruud\Python\dev\lichtblyck\scripts\2022\2022_06_03_heatmap_temprisk_without_planprices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB17E63F-DADB-45FF-A6C8-3F0392F13C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A496662-ACA9-432B-A8B1-C4DF6369E262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="-110" windowWidth="36610" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="1140" windowWidth="27290" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -38,15 +38,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="21">
   <si>
     <t>ts_left</t>
   </si>
   <si>
     <t>Temperature scenarios</t>
-  </si>
-  <si>
-    <t>Temperatur vs Norm [deg]</t>
   </si>
   <si>
     <t>Volume vs Norm [%]</t>
@@ -79,35 +76,46 @@
     <t>Eur/MWh</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>Table values:</t>
   </si>
   <si>
     <t>Cost increase</t>
   </si>
   <si>
-    <t>Portfolio price</t>
+    <t>Eur</t>
   </si>
   <si>
-    <t>Eur</t>
+    <t>Center: current portfolio price.</t>
+  </si>
+  <si>
+    <t>Increase in portfolio price under</t>
+  </si>
+  <si>
+    <t>various scenarios.</t>
+  </si>
+  <si>
+    <t>Values in [Eur/MWh]</t>
+  </si>
+  <si>
+    <t>Gas B2C Legacy</t>
+  </si>
+  <si>
+    <t>Temperatur vs Norm [degC]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="#,##0%;\-#,##0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00;\-#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00%;\-#,##0.00%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000;\-#,##0.0000"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\ hh:mm;;"/>
-    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;;"/>
-    <numFmt numFmtId="172" formatCode="mmm\ yyyy;;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00%;\-#,##0.00%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000;\-#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd\ hh:mm;;"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;;"/>
+    <numFmt numFmtId="170" formatCode="mmm\ yyyy;;"/>
+    <numFmt numFmtId="171" formatCode="\+#,##0.00;\-#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -139,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,15 +398,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
@@ -402,14 +422,8 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -419,326 +433,380 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="39" fontId="0" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="5" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="39" fontId="0" fillId="5" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1088,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD4F06A-510D-490B-B22A-744AB3E731E9}">
   <dimension ref="A1:AG38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD35" sqref="A1:AD35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1107,2452 +1175,2458 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="20">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="19">
         <f>q!C1</f>
         <v>-2</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <f>q!D1</f>
         <v>-1</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <f>q!E1</f>
         <v>0</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <f>q!F1</f>
         <v>1</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <f>q!G1</f>
         <v>2</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="26" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="16"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="24"/>
+      <c r="W4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="24"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="17"/>
-      <c r="L4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="25"/>
-      <c r="W4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="25"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="29" t="str">
+      <c r="E5" s="28" t="str">
         <f>TEXT(q!C2/q!$E2-1,"+0%;-0%")</f>
         <v>+37%</v>
       </c>
-      <c r="F5" s="29" t="str">
+      <c r="F5" s="28" t="str">
         <f>TEXT(q!D2/q!$E2-1,"+0%;-0%")</f>
         <v>+17%</v>
       </c>
-      <c r="G5" s="47" t="str">
+      <c r="G5" s="46" t="str">
         <f>TEXT(q!E2/q!$E2-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="H5" s="29" t="str">
+      <c r="H5" s="28" t="str">
         <f>TEXT(q!F2/q!$E2-1,"+0%;-0%")</f>
         <v>-15%</v>
       </c>
-      <c r="I5" s="30" t="str">
+      <c r="I5" s="29" t="str">
         <f>TEXT(q!G2/q!$E2-1,"0%;-0%")</f>
         <v>-27%</v>
       </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="O5" s="20">
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="O5" s="19">
         <f>q!C1</f>
         <v>-2</v>
       </c>
-      <c r="P5" s="21">
+      <c r="P5" s="20">
         <f>q!D1</f>
         <v>-1</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="45">
         <f>q!E1</f>
         <v>0</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="20">
         <f>q!F1</f>
         <v>1</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="21">
         <f>q!G1</f>
         <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="4"/>
-      <c r="Z5" s="20">
+        <v>13</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Z5" s="19">
         <f>q!C1</f>
         <v>-2</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AA5" s="20">
         <f>q!D1</f>
         <v>-1</v>
       </c>
-      <c r="AB5" s="46">
+      <c r="AB5" s="45">
         <f>q!E1</f>
         <v>0</v>
       </c>
-      <c r="AC5" s="21">
+      <c r="AC5" s="20">
         <f>q!F1</f>
         <v>1</v>
       </c>
-      <c r="AD5" s="22">
+      <c r="AD5" s="21">
         <f>q!G1</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="32" t="str">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="31" t="str">
         <f>TEXT(q!C3/q!$E3-1,"+0%;-0%")</f>
         <v>+19%</v>
       </c>
-      <c r="F6" s="32" t="str">
+      <c r="F6" s="31" t="str">
         <f>TEXT(q!D3/q!$E3-1,"+0%;-0%")</f>
         <v>+10%</v>
       </c>
-      <c r="G6" s="48" t="str">
+      <c r="G6" s="47" t="str">
         <f>TEXT(q!E3/q!$E3-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="H6" s="32" t="str">
+      <c r="H6" s="31" t="str">
         <f>TEXT(q!F3/q!$E3-1,"+0%;-0%")</f>
         <v>-9%</v>
       </c>
-      <c r="I6" s="33" t="str">
+      <c r="I6" s="32" t="str">
         <f>TEXT(q!G3/q!$E3-1,"0%;-0%")</f>
         <v>-18%</v>
       </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="O6" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="17"/>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="O6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="16"/>
       <c r="W6" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" s="4"/>
-      <c r="Z6" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Z6" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="16"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="35" t="str">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="34" t="str">
         <f>TEXT(q!C4/q!$E4-1,"+0%;-0%")</f>
         <v>+15%</v>
       </c>
-      <c r="F7" s="35" t="str">
+      <c r="F7" s="34" t="str">
         <f>TEXT(q!D4/q!$E4-1,"+0%;-0%")</f>
         <v>+7%</v>
       </c>
-      <c r="G7" s="49" t="str">
+      <c r="G7" s="48" t="str">
         <f>TEXT(q!E4/q!$E4-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="H7" s="35" t="str">
+      <c r="H7" s="34" t="str">
         <f>TEXT(q!F4/q!$E4-1,"+0%;-0%")</f>
         <v>-7%</v>
       </c>
-      <c r="I7" s="36" t="str">
+      <c r="I7" s="35" t="str">
         <f>TEXT(q!G4/q!$E4-1,"0%;-0%")</f>
         <v>-15%</v>
       </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="O7" s="107" t="str">
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="O7" s="106" t="str">
         <f>TEXT(q!C2/q!$E2-1,"+0%;-0%")</f>
         <v>+37%</v>
       </c>
-      <c r="P7" s="29" t="str">
+      <c r="P7" s="28" t="str">
         <f>TEXT(q!D2/q!$E2-1,"+0%;-0%")</f>
         <v>+17%</v>
       </c>
-      <c r="Q7" s="47" t="str">
+      <c r="Q7" s="46" t="str">
         <f>TEXT(q!E2/q!$E2-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="R7" s="29" t="str">
+      <c r="R7" s="28" t="str">
         <f>TEXT(q!F2/q!$E2-1,"+0%;-0%")</f>
         <v>-15%</v>
       </c>
-      <c r="S7" s="30" t="str">
+      <c r="S7" s="29" t="str">
         <f>TEXT(q!G2/q!$E2-1,"0%;-0%")</f>
         <v>-27%</v>
       </c>
-      <c r="T7" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="X7" s="4"/>
-      <c r="Z7" s="107" t="str">
+      <c r="T7" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Z7" s="106" t="str">
         <f>TEXT(q!C2/q!$E2-1,"+0%;-0%")</f>
         <v>+37%</v>
       </c>
-      <c r="AA7" s="29" t="str">
+      <c r="AA7" s="28" t="str">
         <f>TEXT(q!D2/q!$E2-1,"+0%;-0%")</f>
         <v>+17%</v>
       </c>
-      <c r="AB7" s="47" t="str">
+      <c r="AB7" s="46" t="str">
         <f>TEXT(q!E2/q!$E2-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="AC7" s="29" t="str">
+      <c r="AC7" s="28" t="str">
         <f>TEXT(q!F2/q!$E2-1,"+0%;-0%")</f>
         <v>-15%</v>
       </c>
-      <c r="AD7" s="30" t="str">
+      <c r="AD7" s="29" t="str">
         <f>TEXT(q!G2/q!$E2-1,"0%;-0%")</f>
         <v>-27%</v>
       </c>
-      <c r="AE7" s="66" t="s">
-        <v>4</v>
+      <c r="AE7" s="65" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-      <c r="M8" s="4"/>
-      <c r="O8" s="108" t="str">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="K8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="O8" s="107" t="str">
         <f>TEXT(q!C3/q!$E3-1,"+0%;-0%")</f>
         <v>+19%</v>
       </c>
-      <c r="P8" s="32" t="str">
+      <c r="P8" s="31" t="str">
         <f>TEXT(q!D3/q!$E3-1,"+0%;-0%")</f>
         <v>+10%</v>
       </c>
-      <c r="Q8" s="48" t="str">
+      <c r="Q8" s="47" t="str">
         <f>TEXT(q!E3/q!$E3-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="R8" s="32" t="str">
+      <c r="R8" s="31" t="str">
         <f>TEXT(q!F3/q!$E3-1,"+0%;-0%")</f>
         <v>-9%</v>
       </c>
-      <c r="S8" s="33" t="str">
+      <c r="S8" s="32" t="str">
         <f>TEXT(q!G3/q!$E3-1,"0%;-0%")</f>
         <v>-18%</v>
       </c>
-      <c r="T8" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="X8" s="4"/>
-      <c r="Z8" s="108" t="str">
+      <c r="T8" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Z8" s="107" t="str">
         <f>TEXT(q!C3/q!$E3-1,"+0%;-0%")</f>
         <v>+19%</v>
       </c>
-      <c r="AA8" s="32" t="str">
+      <c r="AA8" s="31" t="str">
         <f>TEXT(q!D3/q!$E3-1,"+0%;-0%")</f>
         <v>+10%</v>
       </c>
-      <c r="AB8" s="48" t="str">
+      <c r="AB8" s="47" t="str">
         <f>TEXT(q!E3/q!$E3-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="AC8" s="32" t="str">
+      <c r="AC8" s="31" t="str">
         <f>TEXT(q!F3/q!$E3-1,"+0%;-0%")</f>
         <v>-9%</v>
       </c>
-      <c r="AD8" s="33" t="str">
+      <c r="AD8" s="32" t="str">
         <f>TEXT(q!G3/q!$E3-1,"0%;-0%")</f>
         <v>-18%</v>
       </c>
-      <c r="AE8" s="67" t="s">
-        <v>5</v>
+      <c r="AE8" s="66" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="39">
         <f>q!C2</f>
         <v>71300.439753811559</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <f>q!D2</f>
         <v>60803.790744720573</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="49">
         <f>q!E2</f>
         <v>51856.518000000011</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="39">
         <f>q!F2</f>
         <v>44331.695819703331</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="40">
         <f>q!G2</f>
         <v>38087.780265291047</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="O9" s="109" t="str">
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="108" t="str">
         <f>TEXT(q!C4/q!$E4-1,"+0%;-0%")</f>
         <v>+15%</v>
       </c>
-      <c r="P9" s="35" t="str">
+      <c r="P9" s="34" t="str">
         <f>TEXT(q!D4/q!$E4-1,"+0%;-0%")</f>
         <v>+7%</v>
       </c>
-      <c r="Q9" s="49" t="str">
+      <c r="Q9" s="48" t="str">
         <f>TEXT(q!E4/q!$E4-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="R9" s="35" t="str">
+      <c r="R9" s="34" t="str">
         <f>TEXT(q!F4/q!$E4-1,"+0%;-0%")</f>
         <v>-7%</v>
       </c>
-      <c r="S9" s="36" t="str">
+      <c r="S9" s="35" t="str">
         <f>TEXT(q!G4/q!$E4-1,"0%;-0%")</f>
         <v>-15%</v>
       </c>
-      <c r="T9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="109" t="str">
+      <c r="T9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Z9" s="108" t="str">
         <f>TEXT(q!C4/q!$E4-1,"+0%;-0%")</f>
         <v>+15%</v>
       </c>
-      <c r="AA9" s="35" t="str">
+      <c r="AA9" s="34" t="str">
         <f>TEXT(q!D4/q!$E4-1,"+0%;-0%")</f>
         <v>+7%</v>
       </c>
-      <c r="AB9" s="49" t="str">
+      <c r="AB9" s="48" t="str">
         <f>TEXT(q!E4/q!$E4-1,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="AC9" s="35" t="str">
+      <c r="AC9" s="34" t="str">
         <f>TEXT(q!F4/q!$E4-1,"+0%;-0%")</f>
         <v>-7%</v>
       </c>
-      <c r="AD9" s="36" t="str">
+      <c r="AD9" s="35" t="str">
         <f>TEXT(q!G4/q!$E4-1,"0%;-0%")</f>
         <v>-15%</v>
       </c>
-      <c r="AE9" s="14" t="s">
-        <v>6</v>
+      <c r="AE9" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="41">
         <f>q!C3</f>
         <v>347809.8400071456</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <f>q!D3</f>
         <v>319704.47284032218</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <f>q!E3</f>
         <v>291929.04499999998</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <f>q!F3</f>
         <v>264773.23750505218</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="42">
         <f>q!G3</f>
         <v>238514.0009715402</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="O10" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="39"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Z10" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="39"/>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="38"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Z10" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="38"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="44">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="43">
         <f>q!C4</f>
         <v>415804.91652166349</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="43">
         <f>q!D4</f>
         <v>389634.74420069868</v>
       </c>
-      <c r="G11" s="52">
+      <c r="G11" s="51">
         <f>q!E4</f>
         <v>362885.23800000019</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="43">
         <f>q!F4</f>
         <v>335820.57057067822</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="44">
         <f>q!G4</f>
         <v>308724.69408484921</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="O11" s="102">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="O11" s="101">
         <f>q!C2</f>
         <v>71300.439753811559</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="39">
         <f>q!D2</f>
         <v>60803.790744720573</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="Q11" s="49">
         <f>q!E2</f>
         <v>51856.518000000011</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="39">
         <f>q!F2</f>
         <v>44331.695819703331</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="40">
         <f>q!G2</f>
         <v>38087.780265291047</v>
       </c>
-      <c r="T11" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Z11" s="102">
+      <c r="T11" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="101">
         <f>q!C2</f>
         <v>71300.439753811559</v>
       </c>
-      <c r="AA11" s="40">
+      <c r="AA11" s="39">
         <f>q!D2</f>
         <v>60803.790744720573</v>
       </c>
-      <c r="AB11" s="50">
+      <c r="AB11" s="49">
         <f>q!E2</f>
         <v>51856.518000000011</v>
       </c>
-      <c r="AC11" s="40">
+      <c r="AC11" s="39">
         <f>q!F2</f>
         <v>44331.695819703331</v>
       </c>
-      <c r="AD11" s="41">
+      <c r="AD11" s="40">
         <f>q!G2</f>
         <v>38087.780265291047</v>
       </c>
-      <c r="AE11" s="66" t="s">
-        <v>4</v>
+      <c r="AE11" s="65" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="103">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="102">
         <f>q!C3</f>
         <v>347809.8400071456</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="41">
         <f>q!D3</f>
         <v>319704.47284032218</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="50">
         <f>q!E3</f>
         <v>291929.04499999998</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="41">
         <f>q!F3</f>
         <v>264773.23750505218</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="42">
         <f>q!G3</f>
         <v>238514.0009715402</v>
       </c>
-      <c r="T12" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="W12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="103">
+      <c r="T12" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="102">
         <f>q!C3</f>
         <v>347809.8400071456</v>
       </c>
-      <c r="AA12" s="42">
+      <c r="AA12" s="41">
         <f>q!D3</f>
         <v>319704.47284032218</v>
       </c>
-      <c r="AB12" s="51">
+      <c r="AB12" s="50">
         <f>q!E3</f>
         <v>291929.04499999998</v>
       </c>
-      <c r="AC12" s="42">
+      <c r="AC12" s="41">
         <f>q!F3</f>
         <v>264773.23750505218</v>
       </c>
-      <c r="AD12" s="43">
+      <c r="AD12" s="42">
         <f>q!G3</f>
         <v>238514.0009715402</v>
       </c>
-      <c r="AE12" s="67" t="s">
-        <v>5</v>
+      <c r="AE12" s="66" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="L13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="105" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="104">
+      <c r="B13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="L13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="103">
         <f>q!C4</f>
         <v>415804.91652166349</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="43">
         <f>q!D4</f>
         <v>389634.74420069868</v>
       </c>
-      <c r="Q13" s="52">
+      <c r="Q13" s="51">
         <f>q!E4</f>
         <v>362885.23800000019</v>
       </c>
-      <c r="R13" s="44">
+      <c r="R13" s="43">
         <f>q!F4</f>
         <v>335820.57057067822</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="44">
         <f>q!G4</f>
         <v>308724.69408484921</v>
       </c>
-      <c r="T13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" s="105" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="104">
+      <c r="T13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="103">
         <f>q!C4</f>
         <v>415804.91652166349</v>
       </c>
-      <c r="AA13" s="44">
+      <c r="AA13" s="43">
         <f>q!D4</f>
         <v>389634.74420069868</v>
       </c>
-      <c r="AB13" s="52">
+      <c r="AB13" s="51">
         <f>q!E4</f>
         <v>362885.23800000019</v>
       </c>
-      <c r="AC13" s="44">
+      <c r="AC13" s="43">
         <f>q!F4</f>
         <v>335820.57057067822</v>
       </c>
-      <c r="AD13" s="45">
+      <c r="AD13" s="44">
         <f>q!G4</f>
         <v>308724.69408484921</v>
       </c>
-      <c r="AE13" s="14" t="s">
-        <v>6</v>
+      <c r="AE13" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="B14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="L14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="W14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="X14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="53"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
+      <c r="B14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="L14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="W14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="11" t="str">
+      <c r="A15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="10" t="str">
         <f>TEXT(pbase!A2,"+0%;-0%")</f>
         <v>-75%</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>pbase!C2</f>
         <v>21.727409286130008</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="66"/>
-      <c r="K15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="11" t="str">
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="65"/>
+      <c r="K15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="10" t="str">
         <f>TEXT(pbase!A2,"+0%;-0%")</f>
         <v>-75%</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <f>pbase!C2</f>
         <v>21.727409286130008</v>
       </c>
-      <c r="O15" s="84">
+      <c r="O15" s="113">
         <f>p_temprisk!C2</f>
         <v>2.359028777291869</v>
       </c>
-      <c r="P15" s="84">
+      <c r="P15" s="113">
         <f>p_temprisk!D2</f>
         <v>1.274388073573778</v>
       </c>
-      <c r="Q15" s="85">
+      <c r="Q15" s="114">
         <f>p_temprisk!E2</f>
         <v>-1.7763568394002501E-15</v>
       </c>
-      <c r="R15" s="86">
+      <c r="R15" s="115">
         <f>p_temprisk!F2</f>
         <v>-1.4731380459536929</v>
       </c>
-      <c r="S15" s="84">
+      <c r="S15" s="113">
         <f>p_temprisk!G2</f>
         <v>-3.140401514825816</v>
       </c>
-      <c r="V15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="11" t="str">
+      <c r="V15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" s="10" t="str">
         <f>TEXT(pbase!A2,"+0%;-0%")</f>
         <v>-75%</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <f>pbase!C2</f>
         <v>21.727409286130008</v>
       </c>
-      <c r="Z15" s="84">
+      <c r="Z15" s="83">
         <f>r_temprisk!C2/1000000</f>
         <v>0.16819978921280659</v>
       </c>
-      <c r="AA15" s="84">
+      <c r="AA15" s="83">
         <f>r_temprisk!D2/1000000</f>
         <v>7.7487625753147577E-2</v>
       </c>
-      <c r="AB15" s="85">
+      <c r="AB15" s="84">
         <f>r_temprisk!E2/1000000</f>
         <v>-9.2115680416782217E-17</v>
       </c>
-      <c r="AC15" s="86">
+      <c r="AC15" s="85">
         <f>r_temprisk!F2/1000000</f>
         <v>-6.5306707753651258E-2</v>
       </c>
-      <c r="AD15" s="84">
+      <c r="AD15" s="83">
         <f>r_temprisk!G2/1000000</f>
         <v>-0.1196109228414729</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="12" t="str">
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="str">
         <f>B15</f>
         <v>-75%</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <f>pbase!C3</f>
         <v>25.07225</v>
       </c>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="68"/>
-      <c r="K16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="12" t="str">
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="67"/>
+      <c r="K16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="11" t="str">
         <f>B15</f>
         <v>-75%</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f>pbase!C3</f>
         <v>25.07225</v>
       </c>
-      <c r="O16" s="87">
+      <c r="O16" s="116">
         <f>p_temprisk!C3</f>
         <v>-2.1592820636336749</v>
       </c>
-      <c r="P16" s="87">
+      <c r="P16" s="116">
         <f>p_temprisk!D3</f>
         <v>-1.1665278466665261</v>
       </c>
-      <c r="Q16" s="88">
+      <c r="Q16" s="117">
         <f>p_temprisk!E3</f>
         <v>-1.4210854715202001E-14</v>
       </c>
-      <c r="R16" s="89">
+      <c r="R16" s="118">
         <f>p_temprisk!F3</f>
         <v>1.3745483594387691</v>
       </c>
-      <c r="S16" s="87">
+      <c r="S16" s="116">
         <f>p_temprisk!G3</f>
         <v>2.9986286207187831</v>
       </c>
-      <c r="V16" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W16" s="12" t="str">
+      <c r="V16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" s="11" t="str">
         <f>B15</f>
         <v>-75%</v>
       </c>
-      <c r="X16" s="8">
+      <c r="X16" s="7">
         <f>pbase!C3</f>
         <v>25.07225</v>
       </c>
-      <c r="Z16" s="87">
+      <c r="Z16" s="86">
         <f>r_temprisk!C3/1000000</f>
         <v>-0.75101954908272772</v>
       </c>
-      <c r="AA16" s="87">
+      <c r="AA16" s="86">
         <f>r_temprisk!D3/1000000</f>
         <v>-0.37294417027207777</v>
       </c>
-      <c r="AB16" s="88">
+      <c r="AB16" s="87">
         <f>r_temprisk!E3/1000000</f>
         <v>-4.1485612456426679E-15</v>
       </c>
-      <c r="AC16" s="89">
+      <c r="AC16" s="88">
         <f>r_temprisk!F3/1000000</f>
         <v>0.36394361923586116</v>
       </c>
-      <c r="AD16" s="87">
+      <c r="AD16" s="86">
         <f>r_temprisk!G3/1000000</f>
         <v>0.71521490975540813</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="13" t="str">
+      <c r="A17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="12" t="str">
         <f>B16</f>
         <v>-75%</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <f>pbase!C4</f>
         <v>25.128499999999988</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="69"/>
-      <c r="K17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="13" t="str">
+      <c r="E17" s="13"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="68"/>
+      <c r="K17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="12" t="str">
         <f>B16</f>
         <v>-75%</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <f>pbase!C4</f>
         <v>25.128499999999988</v>
       </c>
-      <c r="O17" s="90">
+      <c r="O17" s="119">
         <f>p_temprisk!C4</f>
         <v>-7.6330557035135627</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="119">
         <f>p_temprisk!D4</f>
         <v>-4.1171160669071867</v>
       </c>
-      <c r="Q17" s="91">
+      <c r="Q17" s="120">
         <f>p_temprisk!E4</f>
         <v>-2.8421709430404007E-14</v>
       </c>
-      <c r="R17" s="92">
+      <c r="R17" s="121">
         <f>p_temprisk!F4</f>
         <v>4.8323082989145121</v>
       </c>
-      <c r="S17" s="90">
+      <c r="S17" s="119">
         <f>p_temprisk!G4</f>
         <v>10.517961088043039</v>
       </c>
-      <c r="V17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W17" s="13" t="str">
+      <c r="V17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W17" s="12" t="str">
         <f>B16</f>
         <v>-75%</v>
       </c>
-      <c r="X17" s="10">
+      <c r="X17" s="9">
         <f>pbase!C4</f>
         <v>25.128499999999988</v>
       </c>
-      <c r="Z17" s="90">
+      <c r="Z17" s="89">
         <f>r_temprisk!C4/1000000</f>
         <v>-3.1738620896046652</v>
       </c>
-      <c r="AA17" s="90">
+      <c r="AA17" s="89">
         <f>r_temprisk!D4/1000000</f>
         <v>-1.6041714655739692</v>
       </c>
-      <c r="AB17" s="91">
+      <c r="AB17" s="90">
         <f>r_temprisk!E4/1000000</f>
         <v>-1.0313818791019009E-14</v>
       </c>
-      <c r="AC17" s="92">
+      <c r="AC17" s="91">
         <f>r_temprisk!F4/1000000</f>
         <v>1.622788530114895</v>
       </c>
-      <c r="AD17" s="90">
+      <c r="AD17" s="89">
         <f>r_temprisk!G4/1000000</f>
         <v>3.2471543193024339</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="11" t="str">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10" t="str">
         <f>TEXT(pbase!A5,"+0%;-0%")</f>
         <v>-50%</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <f>pbase!C5</f>
         <v>43.454818572260017</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="66"/>
-      <c r="K18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="11" t="str">
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="65"/>
+      <c r="K18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="10" t="str">
         <f>TEXT(pbase!A5,"+0%;-0%")</f>
         <v>-50%</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <f>pbase!C5</f>
         <v>43.454818572260017</v>
       </c>
-      <c r="O18" s="84">
+      <c r="O18" s="113">
         <f>p_temprisk!C5</f>
         <v>8.3452030775551336</v>
       </c>
-      <c r="P18" s="84">
+      <c r="P18" s="113">
         <f>p_temprisk!D5</f>
         <v>4.5059677528200197</v>
       </c>
-      <c r="Q18" s="85">
+      <c r="Q18" s="114">
         <f>p_temprisk!E5</f>
         <v>-1.7763568394002501E-15</v>
       </c>
-      <c r="R18" s="86">
+      <c r="R18" s="115">
         <f>p_temprisk!F5</f>
         <v>-5.2039188443267097</v>
       </c>
-      <c r="S18" s="84">
+      <c r="S18" s="113">
         <f>p_temprisk!G5</f>
         <v>-11.088994884583469</v>
       </c>
-      <c r="V18" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="11" t="str">
+      <c r="V18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="10" t="str">
         <f>TEXT(pbase!A5,"+0%;-0%")</f>
         <v>-50%</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <f>pbase!C5</f>
         <v>43.454818572260017</v>
       </c>
-      <c r="Z18" s="84">
+      <c r="Z18" s="83">
         <f>r_temprisk!C5/1000000</f>
         <v>0.59501664926454267</v>
       </c>
-      <c r="AA18" s="84">
+      <c r="AA18" s="83">
         <f>r_temprisk!D5/1000000</f>
         <v>0.2739799203449273</v>
       </c>
-      <c r="AB18" s="85">
+      <c r="AB18" s="84">
         <f>r_temprisk!E5/1000000</f>
         <v>-9.2115680416782217E-17</v>
       </c>
-      <c r="AC18" s="86">
+      <c r="AC18" s="85">
         <f>r_temprisk!F5/1000000</f>
         <v>-0.23069854727711381</v>
       </c>
-      <c r="AD18" s="84">
+      <c r="AD18" s="83">
         <f>r_temprisk!G5/1000000</f>
         <v>-0.42235520052695191</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="12" t="str">
+      <c r="A19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="11" t="str">
         <f>B18</f>
         <v>-50%</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <f>pbase!C6</f>
         <v>50.144500000000008</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="68"/>
-      <c r="K19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L19" s="12" t="str">
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="67"/>
+      <c r="K19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="11" t="str">
         <f>B18</f>
         <v>-50%</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <f>pbase!C6</f>
         <v>50.144500000000008</v>
       </c>
-      <c r="O19" s="87">
+      <c r="O19" s="116">
         <f>p_temprisk!C6</f>
         <v>1.878199526596227</v>
       </c>
-      <c r="P19" s="87">
+      <c r="P19" s="116">
         <f>p_temprisk!D6</f>
         <v>1.017804172518368</v>
       </c>
-      <c r="Q19" s="88">
+      <c r="Q19" s="117">
         <f>p_temprisk!E6</f>
         <v>-7.1054273576010019E-15</v>
       </c>
-      <c r="R19" s="89">
+      <c r="R19" s="118">
         <f>p_temprisk!F6</f>
         <v>-1.2066898941038029</v>
       </c>
-      <c r="S19" s="87">
+      <c r="S19" s="116">
         <f>p_temprisk!G6</f>
         <v>-2.640359576984622</v>
       </c>
-      <c r="V19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W19" s="12" t="str">
+      <c r="V19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W19" s="11" t="str">
         <f>B18</f>
         <v>-50%</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="7">
         <f>pbase!C6</f>
         <v>50.144500000000008</v>
       </c>
-      <c r="Z19" s="87">
+      <c r="Z19" s="86">
         <f>r_temprisk!C6/1000000</f>
         <v>0.65325627684693011</v>
       </c>
-      <c r="AA19" s="87">
+      <c r="AA19" s="86">
         <f>r_temprisk!D6/1000000</f>
         <v>0.32539654642966515</v>
       </c>
-      <c r="AB19" s="88">
+      <c r="AB19" s="87">
         <f>r_temprisk!E6/1000000</f>
         <v>-2.074280622821334E-15</v>
       </c>
-      <c r="AC19" s="89">
+      <c r="AC19" s="88">
         <f>r_temprisk!F6/1000000</f>
         <v>-0.31949918992649257</v>
       </c>
-      <c r="AD19" s="87">
+      <c r="AD19" s="86">
         <f>r_temprisk!G6/1000000</f>
         <v>-0.62976272671012568</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="13" t="str">
+      <c r="A20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="12" t="str">
         <f>B19</f>
         <v>-50%</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <f>pbase!C7</f>
         <v>50.256999999999977</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="69"/>
-      <c r="K20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L20" s="13" t="str">
+      <c r="E20" s="13"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="68"/>
+      <c r="K20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="12" t="str">
         <f>B19</f>
         <v>-50%</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <f>pbase!C7</f>
         <v>50.256999999999977</v>
       </c>
-      <c r="O20" s="90">
+      <c r="O20" s="119">
         <f>p_temprisk!C7</f>
         <v>-4.4361586860849513</v>
       </c>
-      <c r="P20" s="90">
+      <c r="P20" s="119">
         <f>p_temprisk!D7</f>
         <v>-2.3922923465477619</v>
       </c>
-      <c r="Q20" s="91">
+      <c r="Q20" s="120">
         <f>p_temprisk!E7</f>
         <v>-1.4210854715202001E-14</v>
       </c>
-      <c r="R20" s="92">
+      <c r="R20" s="121">
         <f>p_temprisk!F7</f>
         <v>2.8066655107966341</v>
       </c>
-      <c r="S20" s="90">
+      <c r="S20" s="119">
         <f>p_temprisk!G7</f>
         <v>6.1076126303429561</v>
       </c>
-      <c r="V20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W20" s="13" t="str">
+      <c r="V20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W20" s="12" t="str">
         <f>B19</f>
         <v>-50%</v>
       </c>
-      <c r="X20" s="10">
+      <c r="X20" s="9">
         <f>pbase!C7</f>
         <v>50.256999999999977</v>
       </c>
-      <c r="Z20" s="90">
+      <c r="Z20" s="89">
         <f>r_temprisk!C7/1000000</f>
         <v>-1.8445765921444059</v>
       </c>
-      <c r="AA20" s="90">
+      <c r="AA20" s="89">
         <f>r_temprisk!D7/1000000</f>
         <v>-0.93212021650042676</v>
       </c>
-      <c r="AB20" s="91">
+      <c r="AB20" s="90">
         <f>r_temprisk!E7/1000000</f>
         <v>-5.1569093955095045E-15</v>
       </c>
-      <c r="AC20" s="92">
+      <c r="AC20" s="91">
         <f>r_temprisk!F7/1000000</f>
         <v>0.9425360132367695</v>
       </c>
-      <c r="AD20" s="90">
+      <c r="AD20" s="89">
         <f>r_temprisk!G7/1000000</f>
         <v>1.88557084089139</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="11" t="str">
+      <c r="A21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="10" t="str">
         <f>TEXT(pbase!A8,"+0%;-0%")</f>
         <v>-25%</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>pbase!C8</f>
         <v>65.18222785838995</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="66"/>
-      <c r="K21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="11" t="str">
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="65"/>
+      <c r="K21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="10" t="str">
         <f>TEXT(pbase!A8,"+0%;-0%")</f>
         <v>-25%</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <f>pbase!C8</f>
         <v>65.18222785838995</v>
       </c>
-      <c r="O21" s="84">
+      <c r="O21" s="113">
         <f>p_temprisk!C8</f>
         <v>14.331377377818409</v>
       </c>
-      <c r="P21" s="84">
+      <c r="P21" s="113">
         <f>p_temprisk!D8</f>
         <v>7.7375474320662683</v>
       </c>
-      <c r="Q21" s="85">
+      <c r="Q21" s="114">
         <f>p_temprisk!E8</f>
         <v>0</v>
       </c>
-      <c r="R21" s="86">
+      <c r="R21" s="115">
         <f>p_temprisk!F8</f>
         <v>-8.9346996426997265</v>
       </c>
-      <c r="S21" s="84">
+      <c r="S21" s="113">
         <f>p_temprisk!G8</f>
         <v>-19.037588254341131</v>
       </c>
-      <c r="V21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="11" t="str">
+      <c r="V21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="10" t="str">
         <f>TEXT(pbase!A8,"+0%;-0%")</f>
         <v>-25%</v>
       </c>
-      <c r="X21" s="6">
+      <c r="X21" s="5">
         <f>pbase!C8</f>
         <v>65.18222785838995</v>
       </c>
-      <c r="Z21" s="84">
+      <c r="Z21" s="83">
         <f>r_temprisk!C8/1000000</f>
         <v>1.0218335093162789</v>
       </c>
-      <c r="AA21" s="84">
+      <c r="AA21" s="83">
         <f>r_temprisk!D8/1000000</f>
         <v>0.47047221493670738</v>
       </c>
-      <c r="AB21" s="85">
+      <c r="AB21" s="84">
         <f>r_temprisk!E8/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC21" s="86">
+      <c r="AC21" s="85">
         <f>r_temprisk!F8/1000000</f>
         <v>-0.39609038680057629</v>
       </c>
-      <c r="AD21" s="84">
+      <c r="AD21" s="83">
         <f>r_temprisk!G8/1000000</f>
         <v>-0.72509947821243081</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="12" t="str">
+      <c r="A22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="11" t="str">
         <f>B21</f>
         <v>-25%</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="7">
         <f>pbase!C9</f>
         <v>75.216749999999863</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="68"/>
-      <c r="K22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="12" t="str">
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="67"/>
+      <c r="K22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="11" t="str">
         <f>B21</f>
         <v>-25%</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <f>pbase!C9</f>
         <v>75.216749999999863</v>
       </c>
-      <c r="O22" s="87">
+      <c r="O22" s="116">
         <f>p_temprisk!C9</f>
         <v>5.9156811168261356</v>
       </c>
-      <c r="P22" s="87">
+      <c r="P22" s="116">
         <f>p_temprisk!D9</f>
         <v>3.202136191703254</v>
       </c>
-      <c r="Q22" s="88">
+      <c r="Q22" s="117">
         <f>p_temprisk!E9</f>
         <v>-7.1054273576010019E-15</v>
       </c>
-      <c r="R22" s="89">
+      <c r="R22" s="118">
         <f>p_temprisk!F9</f>
         <v>-3.7879281476463831</v>
       </c>
-      <c r="S22" s="87">
+      <c r="S22" s="116">
         <f>p_temprisk!G9</f>
         <v>-8.2793477746880377</v>
       </c>
-      <c r="V22" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W22" s="12" t="str">
+      <c r="V22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="11" t="str">
         <f>B21</f>
         <v>-25%</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="7">
         <f>pbase!C9</f>
         <v>75.216749999999863</v>
       </c>
-      <c r="Z22" s="87">
+      <c r="Z22" s="86">
         <f>r_temprisk!C9/1000000</f>
         <v>2.0575321027765909</v>
       </c>
-      <c r="AA22" s="87">
+      <c r="AA22" s="86">
         <f>r_temprisk!D9/1000000</f>
         <v>1.0237372631314061</v>
       </c>
-      <c r="AB22" s="88">
+      <c r="AB22" s="87">
         <f>r_temprisk!E9/1000000</f>
         <v>-2.074280622821334E-15</v>
       </c>
-      <c r="AC22" s="89">
+      <c r="AC22" s="88">
         <f>r_temprisk!F9/1000000</f>
         <v>-1.002941999088848</v>
       </c>
-      <c r="AD22" s="87">
+      <c r="AD22" s="86">
         <f>r_temprisk!G9/1000000</f>
         <v>-1.9747403631756619</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="13" t="str">
+      <c r="A23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="12" t="str">
         <f>B22</f>
         <v>-25%</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <f>pbase!C10</f>
         <v>75.385499999999894</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="69"/>
-      <c r="K23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L23" s="13" t="str">
+      <c r="E23" s="13"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="68"/>
+      <c r="K23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="12" t="str">
         <f>B22</f>
         <v>-25%</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <f>pbase!C10</f>
         <v>75.385499999999894</v>
       </c>
-      <c r="O23" s="90">
+      <c r="O23" s="119">
         <f>p_temprisk!C10</f>
         <v>-1.239261668656354</v>
       </c>
-      <c r="P23" s="90">
+      <c r="P23" s="119">
         <f>p_temprisk!D10</f>
         <v>-0.66746862618835223</v>
       </c>
-      <c r="Q23" s="88">
+      <c r="Q23" s="117">
         <f>p_temprisk!E10</f>
         <v>-1.4210854715202001E-14</v>
       </c>
-      <c r="R23" s="92">
+      <c r="R23" s="121">
         <f>p_temprisk!F10</f>
         <v>0.78102272267877026</v>
       </c>
-      <c r="S23" s="90">
+      <c r="S23" s="119">
         <f>p_temprisk!G10</f>
         <v>1.697264172642889</v>
       </c>
-      <c r="V23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W23" s="13" t="str">
+      <c r="V23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="12" t="str">
         <f>B22</f>
         <v>-25%</v>
       </c>
-      <c r="X23" s="10">
+      <c r="X23" s="9">
         <f>pbase!C10</f>
         <v>75.385499999999894</v>
       </c>
-      <c r="Z23" s="90">
+      <c r="Z23" s="89">
         <f>r_temprisk!C10/1000000</f>
         <v>-0.51529109468415291</v>
       </c>
-      <c r="AA23" s="90">
+      <c r="AA23" s="89">
         <f>r_temprisk!D10/1000000</f>
         <v>-0.2600689674268904</v>
       </c>
-      <c r="AB23" s="88">
+      <c r="AB23" s="87">
         <f>r_temprisk!E10/1000000</f>
         <v>-5.1569093955095045E-15</v>
       </c>
-      <c r="AC23" s="92">
+      <c r="AC23" s="91">
         <f>r_temprisk!F10/1000000</f>
         <v>0.26228349635864923</v>
       </c>
-      <c r="AD23" s="90">
+      <c r="AD23" s="89">
         <f>r_temprisk!G10/1000000</f>
         <v>0.52398736248035049</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="56" t="str">
+      <c r="A24" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="55" t="str">
         <f>TEXT(pbase!A11,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="56">
         <f>pbase!C11</f>
         <v>86.909637144520033</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="70"/>
-      <c r="K24" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="56" t="str">
+      <c r="D24" s="53"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="69"/>
+      <c r="K24" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="55" t="str">
         <f>TEXT(pbase!A11,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="M24" s="57">
+      <c r="M24" s="56">
         <f>pbase!C11</f>
         <v>86.909637144520033</v>
       </c>
-      <c r="N24" s="54"/>
-      <c r="O24" s="85">
+      <c r="N24" s="53"/>
+      <c r="O24" s="114">
         <f>p_temprisk!C11</f>
         <v>20.31755167808166</v>
       </c>
-      <c r="P24" s="93">
+      <c r="P24" s="122">
         <f>p_temprisk!D11</f>
         <v>10.969127111312501</v>
       </c>
-      <c r="Q24" s="94">
-        <f>p_temprisk!E11</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="95">
+      <c r="Q24" s="110">
+        <f>p_procurement!E11</f>
+        <v>13.30066403853086</v>
+      </c>
+      <c r="R24" s="125">
         <f>p_temprisk!F11</f>
         <v>-12.66548044107275</v>
       </c>
-      <c r="S24" s="85">
+      <c r="S24" s="114">
         <f>p_temprisk!G11</f>
         <v>-26.986181624098791</v>
       </c>
-      <c r="V24" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="56" t="str">
+      <c r="V24" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="55" t="str">
         <f>TEXT(pbase!A11,"+0%;-0%")</f>
         <v>+0%</v>
       </c>
-      <c r="X24" s="57">
+      <c r="X24" s="56">
         <f>pbase!C11</f>
         <v>86.909637144520033</v>
       </c>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="85">
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="84">
         <f>r_temprisk!C11/1000000</f>
         <v>1.4486503693680139</v>
       </c>
-      <c r="AA24" s="93">
+      <c r="AA24" s="92">
         <f>r_temprisk!D11/1000000</f>
         <v>0.66696450952848663</v>
       </c>
-      <c r="AB24" s="94">
+      <c r="AB24" s="93">
         <f>r_temprisk!E11/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC24" s="95">
+      <c r="AC24" s="94">
         <f>r_temprisk!F11/1000000</f>
         <v>-0.56148222632403888</v>
       </c>
-      <c r="AD24" s="85">
+      <c r="AD24" s="84">
         <f>r_temprisk!G11/1000000</f>
         <v>-1.0278437558979099</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A25" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="59" t="str">
+      <c r="A25" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="58" t="str">
         <f>B24</f>
         <v>+0%</v>
       </c>
-      <c r="C25" s="60">
+      <c r="C25" s="59">
         <f>pbase!C12</f>
         <v>100.289</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="71"/>
-      <c r="K25" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="L25" s="59" t="str">
+      <c r="D25" s="53"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="70"/>
+      <c r="K25" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="58" t="str">
         <f>B24</f>
         <v>+0%</v>
       </c>
-      <c r="M25" s="60">
+      <c r="M25" s="59">
         <f>pbase!C12</f>
         <v>100.289</v>
       </c>
-      <c r="N25" s="54"/>
-      <c r="O25" s="88">
+      <c r="N25" s="53"/>
+      <c r="O25" s="117">
         <f>p_temprisk!C12</f>
         <v>9.9531627070560447</v>
       </c>
-      <c r="P25" s="96">
+      <c r="P25" s="123">
         <f>p_temprisk!D12</f>
         <v>5.3864682108881468</v>
       </c>
-      <c r="Q25" s="97">
-        <f>p_temprisk!E12</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="98">
+      <c r="Q25" s="111">
+        <f>p_procurement!E12</f>
+        <v>38.569518825506712</v>
+      </c>
+      <c r="R25" s="126">
         <f>p_temprisk!F12</f>
         <v>-6.3691664011889557</v>
       </c>
-      <c r="S25" s="88">
+      <c r="S25" s="117">
         <f>p_temprisk!G12</f>
         <v>-13.91833597239145</v>
       </c>
-      <c r="V25" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="W25" s="59" t="str">
+      <c r="V25" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="58" t="str">
         <f>B24</f>
         <v>+0%</v>
       </c>
-      <c r="X25" s="60">
+      <c r="X25" s="59">
         <f>pbase!C12</f>
         <v>100.289</v>
       </c>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="88">
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="87">
         <f>r_temprisk!C12/1000000</f>
         <v>3.4618079287062509</v>
       </c>
-      <c r="AA25" s="96">
+      <c r="AA25" s="95">
         <f>r_temprisk!D12/1000000</f>
         <v>1.7220779798331489</v>
       </c>
-      <c r="AB25" s="97">
+      <c r="AB25" s="96">
         <f>r_temprisk!E12/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC25" s="98">
+      <c r="AC25" s="97">
         <f>r_temprisk!F12/1000000</f>
         <v>-1.6863848082512021</v>
       </c>
-      <c r="AD25" s="88">
+      <c r="AD25" s="87">
         <f>r_temprisk!G12/1000000</f>
         <v>-3.3197179996411967</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="62" t="str">
+      <c r="A26" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="61" t="str">
         <f>B25</f>
         <v>+0%</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="62">
         <f>pbase!C13</f>
         <v>100.514</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="72"/>
-      <c r="K26" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="L26" s="62" t="str">
+      <c r="D26" s="53"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="71"/>
+      <c r="K26" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="61" t="str">
         <f>B25</f>
         <v>+0%</v>
       </c>
-      <c r="M26" s="63">
+      <c r="M26" s="62">
         <f>pbase!C13</f>
         <v>100.514</v>
       </c>
-      <c r="N26" s="54"/>
-      <c r="O26" s="91">
+      <c r="N26" s="53"/>
+      <c r="O26" s="120">
         <f>p_temprisk!C13</f>
         <v>1.9576353487722571</v>
       </c>
-      <c r="P26" s="99">
+      <c r="P26" s="124">
         <f>p_temprisk!D13</f>
         <v>1.0573550941710721</v>
       </c>
-      <c r="Q26" s="100">
-        <f>p_temprisk!E13</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="101">
+      <c r="Q26" s="112">
+        <f>p_procurement!E13</f>
+        <v>85.094008748021707</v>
+      </c>
+      <c r="R26" s="127">
         <f>p_temprisk!F13</f>
         <v>-1.244620065439122</v>
       </c>
-      <c r="S26" s="91">
+      <c r="S26" s="120">
         <f>p_temprisk!G13</f>
         <v>-2.7130842850571919</v>
       </c>
-      <c r="V26" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="W26" s="62" t="str">
+      <c r="V26" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="W26" s="61" t="str">
         <f>B25</f>
         <v>+0%</v>
       </c>
-      <c r="X26" s="63">
+      <c r="X26" s="62">
         <f>pbase!C13</f>
         <v>100.514</v>
       </c>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="91">
+      <c r="Y26" s="53"/>
+      <c r="Z26" s="90">
         <f>r_temprisk!C13/1000000</f>
         <v>0.81399440277610602</v>
       </c>
-      <c r="AA26" s="99">
+      <c r="AA26" s="98">
         <f>r_temprisk!D13/1000000</f>
         <v>0.4119822816466514</v>
       </c>
-      <c r="AB26" s="100">
+      <c r="AB26" s="99">
         <f>r_temprisk!E13/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC26" s="101">
+      <c r="AC26" s="100">
         <f>r_temprisk!F13/1000000</f>
         <v>-0.41796902051948071</v>
       </c>
-      <c r="AD26" s="91">
+      <c r="AD26" s="90">
         <f>r_temprisk!G13/1000000</f>
         <v>-0.83759611593069339</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="11" t="str">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="10" t="str">
         <f>TEXT(pbase!A14,"+0%;-0%")</f>
         <v>+25%</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>pbase!C14</f>
         <v>108.6370464306502</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="66"/>
-      <c r="K27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="11" t="str">
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="65"/>
+      <c r="K27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="10" t="str">
         <f>TEXT(pbase!A14,"+0%;-0%")</f>
         <v>+25%</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="5">
         <f>pbase!C14</f>
         <v>108.6370464306502</v>
       </c>
-      <c r="O27" s="84">
+      <c r="O27" s="113">
         <f>p_temprisk!C14</f>
         <v>26.303725978344939</v>
       </c>
-      <c r="P27" s="84">
+      <c r="P27" s="113">
         <f>p_temprisk!D14</f>
         <v>14.200706790558749</v>
       </c>
-      <c r="Q27" s="88">
+      <c r="Q27" s="117">
         <f>p_temprisk!E14</f>
         <v>0</v>
       </c>
-      <c r="R27" s="86">
+      <c r="R27" s="115">
         <f>p_temprisk!F14</f>
         <v>-16.39626123944576</v>
       </c>
-      <c r="S27" s="84">
+      <c r="S27" s="113">
         <f>p_temprisk!G14</f>
         <v>-34.93477499385645</v>
       </c>
-      <c r="V27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="11" t="str">
+      <c r="V27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="10" t="str">
         <f>TEXT(pbase!A14,"+0%;-0%")</f>
         <v>+25%</v>
       </c>
-      <c r="X27" s="6">
+      <c r="X27" s="5">
         <f>pbase!C14</f>
         <v>108.6370464306502</v>
       </c>
-      <c r="Z27" s="84">
+      <c r="Z27" s="83">
         <f>r_temprisk!C14/1000000</f>
         <v>1.8754672294197512</v>
       </c>
-      <c r="AA27" s="84">
+      <c r="AA27" s="83">
         <f>r_temprisk!D14/1000000</f>
         <v>0.8634568041202666</v>
       </c>
-      <c r="AB27" s="88">
+      <c r="AB27" s="87">
         <f>r_temprisk!E14/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC27" s="86">
+      <c r="AC27" s="85">
         <f>r_temprisk!F14/1000000</f>
         <v>-0.72687406584750114</v>
       </c>
-      <c r="AD27" s="84">
+      <c r="AD27" s="83">
         <f>r_temprisk!G14/1000000</f>
         <v>-1.3305880335833888</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="12" t="str">
+      <c r="A28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="11" t="str">
         <f>B27</f>
         <v>+25%</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <f>pbase!C15</f>
         <v>125.3612499999998</v>
       </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="68"/>
-      <c r="K28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L28" s="12" t="str">
+      <c r="E28" s="66"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="67"/>
+      <c r="K28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="11" t="str">
         <f>B27</f>
         <v>+25%</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <f>pbase!C15</f>
         <v>125.3612499999998</v>
       </c>
-      <c r="O28" s="87">
+      <c r="O28" s="116">
         <f>p_temprisk!C15</f>
         <v>13.99064429728595</v>
       </c>
-      <c r="P28" s="87">
+      <c r="P28" s="116">
         <f>p_temprisk!D15</f>
         <v>7.5708002300730257</v>
       </c>
-      <c r="Q28" s="88">
+      <c r="Q28" s="117">
         <f>p_temprisk!E15</f>
         <v>1.4210854715202001E-14</v>
       </c>
-      <c r="R28" s="89">
+      <c r="R28" s="118">
         <f>p_temprisk!F15</f>
         <v>-8.9504046547315461</v>
       </c>
-      <c r="S28" s="87">
+      <c r="S28" s="116">
         <f>p_temprisk!G15</f>
         <v>-19.557324170094859</v>
       </c>
-      <c r="V28" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W28" s="12" t="str">
+      <c r="V28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" s="11" t="str">
         <f>B27</f>
         <v>+25%</v>
       </c>
-      <c r="X28" s="8">
+      <c r="X28" s="7">
         <f>pbase!C15</f>
         <v>125.3612499999998</v>
       </c>
-      <c r="Z28" s="87">
+      <c r="Z28" s="86">
         <f>r_temprisk!C15/1000000</f>
         <v>4.866083754635909</v>
       </c>
-      <c r="AA28" s="87">
+      <c r="AA28" s="86">
         <f>r_temprisk!D15/1000000</f>
         <v>2.4204186965348868</v>
       </c>
-      <c r="AB28" s="88">
+      <c r="AB28" s="87">
         <f>r_temprisk!E15/1000000</f>
         <v>4.1485612456426679E-15</v>
       </c>
-      <c r="AC28" s="89">
+      <c r="AC28" s="88">
         <f>r_temprisk!F15/1000000</f>
         <v>-2.3698276174135611</v>
       </c>
-      <c r="AD28" s="87">
+      <c r="AD28" s="86">
         <f>r_temprisk!G15/1000000</f>
         <v>-4.6646956361067318</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="13" t="str">
+      <c r="A29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="str">
         <f>B28</f>
         <v>+25%</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="9">
         <f>pbase!C16</f>
         <v>125.6425000000001</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="69"/>
-      <c r="K29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L29" s="13" t="str">
+      <c r="E29" s="13"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="68"/>
+      <c r="K29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="12" t="str">
         <f>B28</f>
         <v>+25%</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <f>pbase!C16</f>
         <v>125.6425000000001</v>
       </c>
-      <c r="O29" s="90">
+      <c r="O29" s="119">
         <f>p_temprisk!C16</f>
         <v>5.1545323662008542</v>
       </c>
-      <c r="P29" s="90">
+      <c r="P29" s="119">
         <f>p_temprisk!D16</f>
         <v>2.782178814530468</v>
       </c>
-      <c r="Q29" s="91">
+      <c r="Q29" s="120">
         <f>p_temprisk!E16</f>
         <v>0</v>
       </c>
-      <c r="R29" s="92">
+      <c r="R29" s="121">
         <f>p_temprisk!F16</f>
         <v>-3.270262853557</v>
       </c>
-      <c r="S29" s="90">
+      <c r="S29" s="119">
         <f>p_temprisk!G16</f>
         <v>-7.1234327427572737</v>
       </c>
-      <c r="V29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W29" s="13" t="str">
+      <c r="V29" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="12" t="str">
         <f>B28</f>
         <v>+25%</v>
       </c>
-      <c r="X29" s="10">
+      <c r="X29" s="9">
         <f>pbase!C16</f>
         <v>125.6425000000001</v>
       </c>
-      <c r="Z29" s="90">
+      <c r="Z29" s="89">
         <f>r_temprisk!C16/1000000</f>
         <v>2.1432799002363589</v>
       </c>
-      <c r="AA29" s="90">
+      <c r="AA29" s="89">
         <f>r_temprisk!D16/1000000</f>
         <v>1.084033530720182</v>
       </c>
-      <c r="AB29" s="91">
+      <c r="AB29" s="90">
         <f>r_temprisk!E16/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC29" s="92">
+      <c r="AC29" s="91">
         <f>r_temprisk!F16/1000000</f>
         <v>-1.0982215373976061</v>
       </c>
-      <c r="AD29" s="90">
+      <c r="AD29" s="89">
         <f>r_temprisk!G16/1000000</f>
         <v>-2.1991795943417372</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="11" t="str">
+      <c r="A30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="10" t="str">
         <f>TEXT(pbase!A17,"+0%;-0%")</f>
         <v>+50%</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f>pbase!C17</f>
         <v>130.3644557167799</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="66"/>
-      <c r="K30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="11" t="str">
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="65"/>
+      <c r="K30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L30" s="10" t="str">
         <f>TEXT(pbase!A17,"+0%;-0%")</f>
         <v>+50%</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="5">
         <f>pbase!C17</f>
         <v>130.3644557167799</v>
       </c>
-      <c r="O30" s="84">
+      <c r="O30" s="113">
         <f>p_temprisk!C17</f>
         <v>32.289900278608201</v>
       </c>
-      <c r="P30" s="84">
+      <c r="P30" s="113">
         <f>p_temprisk!D17</f>
         <v>17.432286469805</v>
       </c>
-      <c r="Q30" s="85">
+      <c r="Q30" s="114">
         <f>p_temprisk!E17</f>
         <v>5.3290705182007514E-15</v>
       </c>
-      <c r="R30" s="86">
+      <c r="R30" s="115">
         <f>p_temprisk!F17</f>
         <v>-20.127042037818779</v>
       </c>
-      <c r="S30" s="84">
+      <c r="S30" s="113">
         <f>p_temprisk!G17</f>
         <v>-42.883368363614103</v>
       </c>
-      <c r="T30" s="106"/>
-      <c r="V30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W30" s="11" t="str">
+      <c r="T30" s="105"/>
+      <c r="V30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W30" s="10" t="str">
         <f>TEXT(pbase!A17,"+0%;-0%")</f>
         <v>+50%</v>
       </c>
-      <c r="X30" s="6">
+      <c r="X30" s="5">
         <f>pbase!C17</f>
         <v>130.3644557167799</v>
       </c>
-      <c r="Z30" s="84">
+      <c r="Z30" s="83">
         <f>r_temprisk!C17/1000000</f>
         <v>2.3022840894714869</v>
       </c>
-      <c r="AA30" s="84">
+      <c r="AA30" s="83">
         <f>r_temprisk!D17/1000000</f>
         <v>1.059949098712047</v>
       </c>
-      <c r="AB30" s="85">
+      <c r="AB30" s="84">
         <f>r_temprisk!E17/1000000</f>
         <v>2.7634704125034669E-16</v>
       </c>
-      <c r="AC30" s="86">
+      <c r="AC30" s="85">
         <f>r_temprisk!F17/1000000</f>
         <v>-0.89226590537096384</v>
       </c>
-      <c r="AD30" s="84">
+      <c r="AD30" s="83">
         <f>r_temprisk!G17/1000000</f>
         <v>-1.633332311268868</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="12" t="str">
+      <c r="A31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="11" t="str">
         <f>B30</f>
         <v>+50%</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <f>pbase!C18</f>
         <v>150.4334999999997</v>
       </c>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="68"/>
-      <c r="K31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L31" s="12" t="str">
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="67"/>
+      <c r="K31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="11" t="str">
         <f>B30</f>
         <v>+50%</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <f>pbase!C18</f>
         <v>150.4334999999997</v>
       </c>
-      <c r="O31" s="87">
+      <c r="O31" s="116">
         <f>p_temprisk!C18</f>
         <v>18.028125887515859</v>
       </c>
-      <c r="P31" s="87">
+      <c r="P31" s="116">
         <f>p_temprisk!D18</f>
         <v>9.7551322492579118</v>
       </c>
-      <c r="Q31" s="88">
+      <c r="Q31" s="117">
         <f>p_temprisk!E18</f>
         <v>7.1054273576010019E-15</v>
       </c>
-      <c r="R31" s="89">
+      <c r="R31" s="118">
         <f>p_temprisk!F18</f>
         <v>-11.531642908274121</v>
       </c>
-      <c r="S31" s="87">
+      <c r="S31" s="116">
         <f>p_temprisk!G18</f>
         <v>-25.19631236779826</v>
       </c>
-      <c r="T31" s="106"/>
-      <c r="V31" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W31" s="12" t="str">
+      <c r="T31" s="105"/>
+      <c r="V31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W31" s="11" t="str">
         <f>B30</f>
         <v>+50%</v>
       </c>
-      <c r="X31" s="8">
+      <c r="X31" s="7">
         <f>pbase!C18</f>
         <v>150.4334999999997</v>
       </c>
-      <c r="Z31" s="87">
+      <c r="Z31" s="86">
         <f>r_temprisk!C18/1000000</f>
         <v>6.2703595805655699</v>
       </c>
-      <c r="AA31" s="87">
+      <c r="AA31" s="86">
         <f>r_temprisk!D18/1000000</f>
         <v>3.1187594132366279</v>
       </c>
-      <c r="AB31" s="88">
+      <c r="AB31" s="87">
         <f>r_temprisk!E18/1000000</f>
         <v>2.074280622821334E-15</v>
       </c>
-      <c r="AC31" s="89">
+      <c r="AC31" s="88">
         <f>r_temprisk!F18/1000000</f>
         <v>-3.0532704265759141</v>
       </c>
-      <c r="AD31" s="87">
+      <c r="AD31" s="86">
         <f>r_temprisk!G18/1000000</f>
         <v>-6.0096732725722664</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="13" t="str">
+      <c r="A32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="12" t="str">
         <f>B31</f>
         <v>+50%</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <f>pbase!C19</f>
         <v>150.77099999999979</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="69"/>
-      <c r="K32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" s="13" t="str">
+      <c r="E32" s="13"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="68"/>
+      <c r="K32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="12" t="str">
         <f>B31</f>
         <v>+50%</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="9">
         <f>pbase!C19</f>
         <v>150.77099999999979</v>
       </c>
-      <c r="O32" s="90">
+      <c r="O32" s="119">
         <f>p_temprisk!C19</f>
         <v>8.3514293836294797</v>
       </c>
-      <c r="P32" s="90">
+      <c r="P32" s="119">
         <f>p_temprisk!D19</f>
         <v>4.5070025348899074</v>
       </c>
-      <c r="Q32" s="91">
+      <c r="Q32" s="120">
         <f>p_temprisk!E19</f>
         <v>0</v>
       </c>
-      <c r="R32" s="92">
+      <c r="R32" s="121">
         <f>p_temprisk!F19</f>
         <v>-5.295905641674878</v>
       </c>
-      <c r="S32" s="90">
+      <c r="S32" s="119">
         <f>p_temprisk!G19</f>
         <v>-11.53378120045733</v>
       </c>
-      <c r="T32" s="106"/>
-      <c r="V32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W32" s="13" t="str">
+      <c r="T32" s="105"/>
+      <c r="V32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W32" s="12" t="str">
         <f>B31</f>
         <v>+50%</v>
       </c>
-      <c r="X32" s="10">
+      <c r="X32" s="9">
         <f>pbase!C19</f>
         <v>150.77099999999979</v>
       </c>
-      <c r="Z32" s="90">
+      <c r="Z32" s="89">
         <f>r_temprisk!C19/1000000</f>
         <v>3.472565397696624</v>
       </c>
-      <c r="AA32" s="90">
+      <c r="AA32" s="89">
         <f>r_temprisk!D19/1000000</f>
         <v>1.75608477979373</v>
       </c>
-      <c r="AB32" s="91">
+      <c r="AB32" s="90">
         <f>r_temprisk!E19/1000000</f>
         <v>0</v>
       </c>
-      <c r="AC32" s="92">
+      <c r="AC32" s="91">
         <f>r_temprisk!F19/1000000</f>
         <v>-1.7784740542757311</v>
       </c>
-      <c r="AD32" s="90">
+      <c r="AD32" s="89">
         <f>r_temprisk!G19/1000000</f>
         <v>-3.5607630727527719</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="11" t="str">
+      <c r="A33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="10" t="str">
         <f>TEXT(pbase!A20,"+0%;-0%")</f>
         <v>+75%</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <f>pbase!C20</f>
         <v>152.09186500291031</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="66"/>
-      <c r="K33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="11" t="str">
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="65"/>
+      <c r="K33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="10" t="str">
         <f>TEXT(pbase!A20,"+0%;-0%")</f>
         <v>+75%</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="5">
         <f>pbase!C20</f>
         <v>152.09186500291031</v>
       </c>
-      <c r="O33" s="84">
+      <c r="O33" s="113">
         <f>p_temprisk!C20</f>
         <v>38.276074578871473</v>
       </c>
-      <c r="P33" s="84">
+      <c r="P33" s="113">
         <f>p_temprisk!D20</f>
         <v>20.663866149051231</v>
       </c>
-      <c r="Q33" s="85">
+      <c r="Q33" s="114">
         <f>p_temprisk!E20</f>
         <v>5.3290705182007514E-15</v>
       </c>
-      <c r="R33" s="86">
+      <c r="R33" s="115">
         <f>p_temprisk!F20</f>
         <v>-23.85782283619179</v>
       </c>
-      <c r="S33" s="84">
+      <c r="S33" s="113">
         <f>p_temprisk!G20</f>
         <v>-50.83196173337177</v>
       </c>
-      <c r="T33" s="106"/>
-      <c r="V33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="11" t="str">
+      <c r="T33" s="105"/>
+      <c r="V33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" s="10" t="str">
         <f>TEXT(pbase!A20,"+0%;-0%")</f>
         <v>+75%</v>
       </c>
-      <c r="X33" s="6">
+      <c r="X33" s="5">
         <f>pbase!C20</f>
         <v>152.09186500291031</v>
       </c>
-      <c r="Z33" s="84">
+      <c r="Z33" s="83">
         <f>r_temprisk!C20/1000000</f>
         <v>2.7291009495232239</v>
       </c>
-      <c r="AA33" s="84">
+      <c r="AA33" s="83">
         <f>r_temprisk!D20/1000000</f>
         <v>1.2564413933038261</v>
       </c>
-      <c r="AB33" s="85">
+      <c r="AB33" s="84">
         <f>r_temprisk!E20/1000000</f>
         <v>2.7634704125034669E-16</v>
       </c>
-      <c r="AC33" s="86">
+      <c r="AC33" s="85">
         <f>r_temprisk!F20/1000000</f>
         <v>-1.057657744894426</v>
       </c>
-      <c r="AD33" s="84">
+      <c r="AD33" s="83">
         <f>r_temprisk!G20/1000000</f>
         <v>-1.936076588954347</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="12" t="str">
+      <c r="A34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="11" t="str">
         <f>B33</f>
         <v>+75%</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <f>pbase!C21</f>
         <v>175.50574999999969</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="68"/>
-      <c r="K34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L34" s="12" t="str">
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="67"/>
+      <c r="K34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="11" t="str">
         <f>B33</f>
         <v>+75%</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="7">
         <f>pbase!C21</f>
         <v>175.50574999999969</v>
       </c>
-      <c r="O34" s="87">
+      <c r="O34" s="116">
         <f>p_temprisk!C21</f>
         <v>22.065607477745768</v>
       </c>
-      <c r="P34" s="87">
+      <c r="P34" s="116">
         <f>p_temprisk!D21</f>
         <v>11.939464268442791</v>
       </c>
-      <c r="Q34" s="88">
+      <c r="Q34" s="117">
         <f>p_temprisk!E21</f>
         <v>2.8421709430404007E-14</v>
       </c>
-      <c r="R34" s="89">
+      <c r="R34" s="118">
         <f>p_temprisk!F21</f>
         <v>-14.11288116181669</v>
       </c>
-      <c r="S34" s="87">
+      <c r="S34" s="116">
         <f>p_temprisk!G21</f>
         <v>-30.835300565501662</v>
       </c>
-      <c r="T34" s="106"/>
-      <c r="V34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="W34" s="12" t="str">
+      <c r="T34" s="105"/>
+      <c r="V34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W34" s="11" t="str">
         <f>B33</f>
         <v>+75%</v>
       </c>
-      <c r="X34" s="8">
+      <c r="X34" s="7">
         <f>pbase!C21</f>
         <v>175.50574999999969</v>
       </c>
-      <c r="Z34" s="87">
+      <c r="Z34" s="86">
         <f>r_temprisk!C21/1000000</f>
         <v>7.6746354064952325</v>
       </c>
-      <c r="AA34" s="87">
+      <c r="AA34" s="86">
         <f>r_temprisk!D21/1000000</f>
         <v>3.8171001299383658</v>
       </c>
-      <c r="AB34" s="88">
+      <c r="AB34" s="87">
         <f>r_temprisk!E21/1000000</f>
         <v>8.2971224912853358E-15</v>
       </c>
-      <c r="AC34" s="89">
+      <c r="AC34" s="88">
         <f>r_temprisk!F21/1000000</f>
         <v>-3.736713235738268</v>
       </c>
-      <c r="AD34" s="87">
+      <c r="AD34" s="86">
         <f>r_temprisk!G21/1000000</f>
         <v>-7.3546509090377974</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="13" t="str">
+      <c r="A35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="12" t="str">
         <f>B34</f>
         <v>+75%</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="9">
         <f>pbase!C22</f>
         <v>175.89950000000019</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="69"/>
-      <c r="K35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="L35" s="13" t="str">
+      <c r="E35" s="13"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="68"/>
+      <c r="K35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="12" t="str">
         <f>B34</f>
         <v>+75%</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="9">
         <f>pbase!C22</f>
         <v>175.89950000000019</v>
       </c>
-      <c r="O35" s="90">
+      <c r="O35" s="119">
         <f>p_temprisk!C22</f>
         <v>11.54832640105808</v>
       </c>
-      <c r="P35" s="90">
+      <c r="P35" s="119">
         <f>p_temprisk!D22</f>
         <v>6.2318262552493016</v>
       </c>
-      <c r="Q35" s="91">
+      <c r="Q35" s="120">
         <f>p_temprisk!E22</f>
         <v>1.4210854715202001E-14</v>
       </c>
-      <c r="R35" s="92">
+      <c r="R35" s="121">
         <f>p_temprisk!F22</f>
         <v>-7.3215484297927702</v>
       </c>
-      <c r="S35" s="90">
+      <c r="S35" s="119">
         <f>p_temprisk!G22</f>
         <v>-15.94412965815742</v>
       </c>
-      <c r="T35" s="106"/>
-      <c r="V35" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="W35" s="13" t="str">
+      <c r="T35" s="105"/>
+      <c r="V35" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="W35" s="12" t="str">
         <f>B34</f>
         <v>+75%</v>
       </c>
-      <c r="X35" s="10">
+      <c r="X35" s="9">
         <f>pbase!C22</f>
         <v>175.89950000000019</v>
       </c>
-      <c r="Z35" s="90">
+      <c r="Z35" s="89">
         <f>r_temprisk!C22/1000000</f>
         <v>4.8018508951568775</v>
       </c>
-      <c r="AA35" s="90">
+      <c r="AA35" s="89">
         <f>r_temprisk!D22/1000000</f>
         <v>2.42813602886726</v>
       </c>
-      <c r="AB35" s="91">
+      <c r="AB35" s="90">
         <f>r_temprisk!E22/1000000</f>
         <v>5.1569093955095045E-15</v>
       </c>
-      <c r="AC35" s="92">
+      <c r="AC35" s="91">
         <f>r_temprisk!F22/1000000</f>
         <v>-2.4587265711538611</v>
       </c>
-      <c r="AD35" s="90">
+      <c r="AD35" s="89">
         <f>r_temprisk!G22/1000000</f>
         <v>-4.9223465511638205</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="AG38" s="79"/>
+      <c r="AG38" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="O15:S15 O18:S18 O21:S21 O24:S24 O27:S27 O30:T30 O33:T33">
+  <conditionalFormatting sqref="O15:S15 O18:S18 O21:S21 O24:P24 O27:S27 O30:T30 O33:T33 R24:S24">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -3564,7 +3638,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O16:S16 O19:S19 O22:S22 O25:S25 O28:S28 O31:T31 O34:T34">
+  <conditionalFormatting sqref="O16:S16 O19:S19 O22:S22 O25:P25 O28:S28 O31:T31 O34:T34 R25:S25">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -3576,7 +3650,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:S17 O20:S20 O23:S23 O26:S26 O29:S29 O32:T32 O35:T35">
+  <conditionalFormatting sqref="O17:S17 O20:S20 O23:S23 O26:P26 O29:S29 O32:T32 O35:T35 R26:S26">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -3662,7 +3736,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="109">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -3685,7 +3759,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -3706,7 +3780,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -3727,7 +3801,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="109">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -3750,7 +3824,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -3771,7 +3845,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -3792,7 +3866,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="109">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -3815,7 +3889,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -3836,7 +3910,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -3857,7 +3931,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="109">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -3880,7 +3954,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -3901,7 +3975,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -3922,7 +3996,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="109">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -3945,7 +4019,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -3966,7 +4040,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -3987,7 +4061,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="109">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -4010,7 +4084,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -4031,7 +4105,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -4052,7 +4126,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="109">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -4075,7 +4149,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -4096,7 +4170,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -4117,7 +4191,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="109">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -4140,7 +4214,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -4161,7 +4235,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -4229,7 +4303,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="109">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -4252,7 +4326,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -4273,7 +4347,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -4294,7 +4368,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="109">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -4317,7 +4391,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -4338,7 +4412,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -4359,7 +4433,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="109">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -4382,7 +4456,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -4403,7 +4477,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -4424,7 +4498,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="109">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -4447,7 +4521,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -4468,7 +4542,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -4489,7 +4563,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="109">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -4512,7 +4586,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -4533,7 +4607,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -4554,7 +4628,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="109">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -4577,7 +4651,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -4598,7 +4672,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -4619,7 +4693,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="109">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -4642,7 +4716,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -4663,7 +4737,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -4684,7 +4758,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="109">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -4707,7 +4781,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -4728,7 +4802,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -4767,7 +4841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -4793,7 +4869,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="109">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -4816,7 +4892,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -4837,7 +4913,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -4858,7 +4934,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="109">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -4881,7 +4957,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -4902,7 +4978,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -4923,7 +4999,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="109">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -4946,7 +5022,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -4967,7 +5043,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -4988,7 +5064,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="109">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -5011,7 +5087,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -5032,7 +5108,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -5053,7 +5129,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="109">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -5076,7 +5152,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -5097,7 +5173,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -5118,7 +5194,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="109">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -5141,7 +5217,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -5162,7 +5238,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -5183,7 +5259,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="109">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -5206,7 +5282,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -5227,7 +5303,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -5248,7 +5324,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="109">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -5271,7 +5347,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -5292,7 +5368,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -5324,6 +5400,10 @@
     <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId2"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -5357,7 +5437,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="109">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -5380,7 +5460,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -5401,7 +5481,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -5422,7 +5502,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="109">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -5445,7 +5525,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -5466,7 +5546,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -5487,7 +5567,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="109">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -5510,7 +5590,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -5531,7 +5611,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -5552,7 +5632,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="109">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -5575,7 +5655,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -5596,7 +5676,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -5617,7 +5697,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="109">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -5640,7 +5720,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -5661,7 +5741,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -5682,7 +5762,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="109">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -5705,7 +5785,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -5726,7 +5806,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -5747,7 +5827,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="109">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -5770,7 +5850,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -5791,7 +5871,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -5812,7 +5892,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="109">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -5835,7 +5915,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -5856,7 +5936,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -5921,7 +6001,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="109">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -5944,7 +6024,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -5965,7 +6045,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -5986,7 +6066,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="109">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -6009,7 +6089,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -6030,7 +6110,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -6051,7 +6131,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="109">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -6074,7 +6154,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -6095,7 +6175,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -6116,7 +6196,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="109">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -6139,7 +6219,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -6160,7 +6240,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -6181,7 +6261,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="109">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -6204,7 +6284,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -6225,7 +6305,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -6246,7 +6326,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="109">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -6269,7 +6349,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -6290,7 +6370,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -6311,7 +6391,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="109">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -6334,7 +6414,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -6355,7 +6435,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -6376,7 +6456,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="109">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -6399,7 +6479,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -6420,7 +6500,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -6452,6 +6532,9 @@
     <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
@@ -6485,7 +6568,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
+      <c r="A2" s="109">
         <v>-0.75</v>
       </c>
       <c r="B2" s="2">
@@ -6508,7 +6591,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="3"/>
+      <c r="A3" s="109"/>
       <c r="B3" s="2">
         <v>44835</v>
       </c>
@@ -6529,7 +6612,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="109"/>
       <c r="B4" s="2">
         <v>44927</v>
       </c>
@@ -6550,7 +6633,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
+      <c r="A5" s="109">
         <v>-0.5</v>
       </c>
       <c r="B5" s="2">
@@ -6573,7 +6656,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3"/>
+      <c r="A6" s="109"/>
       <c r="B6" s="2">
         <v>44835</v>
       </c>
@@ -6594,7 +6677,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="2">
         <v>44927</v>
       </c>
@@ -6615,7 +6698,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
+      <c r="A8" s="109">
         <v>-0.25</v>
       </c>
       <c r="B8" s="2">
@@ -6638,7 +6721,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="2">
         <v>44835</v>
       </c>
@@ -6659,7 +6742,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="2">
         <v>44927</v>
       </c>
@@ -6680,7 +6763,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
+      <c r="A11" s="109">
         <v>0</v>
       </c>
       <c r="B11" s="2">
@@ -6703,7 +6786,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="2">
         <v>44835</v>
       </c>
@@ -6724,7 +6807,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="2">
         <v>44927</v>
       </c>
@@ -6745,7 +6828,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="A14" s="109">
         <v>0.25</v>
       </c>
       <c r="B14" s="2">
@@ -6768,7 +6851,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
+      <c r="A15" s="109"/>
       <c r="B15" s="2">
         <v>44835</v>
       </c>
@@ -6789,7 +6872,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="3"/>
+      <c r="A16" s="109"/>
       <c r="B16" s="2">
         <v>44927</v>
       </c>
@@ -6810,7 +6893,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
+      <c r="A17" s="109">
         <v>0.5</v>
       </c>
       <c r="B17" s="2">
@@ -6833,7 +6916,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="2">
         <v>44835</v>
       </c>
@@ -6854,7 +6937,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="2">
         <v>44927</v>
       </c>
@@ -6875,7 +6958,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
+      <c r="A20" s="109">
         <v>0.75</v>
       </c>
       <c r="B20" s="2">
@@ -6898,7 +6981,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
+      <c r="A21" s="109"/>
       <c r="B21" s="2">
         <v>44835</v>
       </c>
@@ -6919,7 +7002,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="2">
         <v>44927</v>
       </c>
@@ -6940,7 +7023,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="109">
         <v>1</v>
       </c>
       <c r="B23" s="2">
@@ -6963,7 +7046,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="3"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="2">
         <v>44835</v>
       </c>
@@ -6984,7 +7067,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="2">
         <v>44927</v>
       </c>
@@ -7016,5 +7099,8 @@
     <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>